--- a/spreadies/3-11-22-drilling with pecking & PI controller.xlsx
+++ b/spreadies/3-11-22-drilling with pecking & PI controller.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kings\Desktop\Uni\2022 t3\Thesis_robotic_drilling\spreadies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Uni\Thesis\Thesis_robotic_drilling\spreadies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7334AB27-CB0A-43B1-AC74-93E223851663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D14DA7-5351-4D8F-973C-903C4418C688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,28 +563,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +595,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -606,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -617,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -625,17 +625,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -649,7 +649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -657,7 +657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -690,7 +690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -738,7 +738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -755,7 +755,7 @@
       </c>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -821,7 +821,7 @@
         <v>10.1525</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -838,7 +838,7 @@
       </c>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="E14" s="6"/>
       <c r="G14" s="5"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="E15" s="6"/>
       <c r="G15" s="5"/>
@@ -860,7 +860,7 @@
       </c>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="E16" s="6"/>
       <c r="G16" s="5"/>
@@ -871,7 +871,7 @@
       </c>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -885,7 +885,7 @@
       </c>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -899,7 +899,7 @@
       </c>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -913,7 +913,7 @@
       </c>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
@@ -947,7 +947,7 @@
       </c>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
@@ -969,7 +969,7 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="9"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1044,25 +1044,25 @@
       </c>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="E26" s="6"/>
       <c r="G26" s="5"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="E27" s="6"/>
       <c r="G27" s="5"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="E28" s="6"/>
       <c r="G28" s="5"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>27</v>
       </c>
